--- a/Bug report.xlsx
+++ b/Bug report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ISTQB material\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06809A05-3FAB-4401-B451-8C39C73567B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6364DC25-09F7-40A5-9489-1C5B69E7D6E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FEFB353D-1E02-44B1-95A8-EF2C38E3747A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="113">
   <si>
     <t>Defect #</t>
   </si>
@@ -69,18 +69,9 @@
     <t>AU001</t>
   </si>
   <si>
-    <t>AU002</t>
-  </si>
-  <si>
     <t>AU003</t>
   </si>
   <si>
-    <t>AU004</t>
-  </si>
-  <si>
-    <t>AU005</t>
-  </si>
-  <si>
     <t>AU007</t>
   </si>
   <si>
@@ -88,65 +79,20 @@
   </si>
   <si>
     <t>AU009</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Leave username blank
-3- Leave password blank
-4- press Login</t>
   </si>
   <si>
     <t xml:space="preserve"> System displays an error indicating
 that no data has been entered</t>
   </si>
   <si>
-    <t>nothing happens</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>1- Go to " Basic Auth" Page
-2- Leave username blank
-3- Enter password
-4- press Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System displays an error indicating
-that username is required</t>
-  </si>
-  <si>
     <t>Mohamed Sharara</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Enter any username
-3- Leave password blank
-4- press Login</t>
   </si>
   <si>
     <t xml:space="preserve"> System displays an error indicating
 that password is required</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Enter wrong username
-3- Enter any password
-4- press Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System displays an error indicating
-that username is not found</t>
-  </si>
-  <si>
-    <t>1- Go to " Basic Auth" Page
-2- Enter Valid username
-3- Enter any password
-4- press Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> System displays an error indicating
-that password is wrong</t>
   </si>
   <si>
     <t>1- Go to " Forgot password" Page
@@ -495,6 +441,21 @@
   </si>
   <si>
     <t>Abdallah Aboelmajd</t>
+  </si>
+  <si>
+    <t>1- Go to " Form Authentication" Page
+2- Leave username blank
+3- Leave password blank
+4- press Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System displays an error Your username is invalid!</t>
+  </si>
+  <si>
+    <t>1- Go to " Form Authintication" Page
+2- Enter any username
+3- Leave password blank
+4- press Login</t>
   </si>
 </sst>
 </file>
@@ -911,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E15503-343D-4543-B357-ED5DD7890283}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -972,7 +933,7 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -981,19 +942,19 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -1004,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -1013,22 +974,22 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1036,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -1045,22 +1006,22 @@
         <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1068,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1077,22 +1038,22 @@
         <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1100,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1109,22 +1070,22 @@
         <v>17</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1132,31 +1093,31 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1164,124 +1125,124 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="F10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1292,31 +1253,31 @@
         <v>8</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="I12" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1324,28 +1285,28 @@
         <v>8</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="H13" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="72" x14ac:dyDescent="0.3">
@@ -1356,31 +1317,31 @@
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="J14" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1388,7 +1349,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1396,23 +1357,23 @@
       <c r="E15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1420,7 +1381,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1428,23 +1389,23 @@
       <c r="E16" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="1" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1452,7 +1413,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1460,23 +1421,23 @@
       <c r="E17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>67</v>
+      <c r="H17" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1484,31 +1445,31 @@
         <v>8</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I18" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1516,63 +1477,63 @@
         <v>8</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="I19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1580,7 +1541,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1588,7 +1549,7 @@
       <c r="E21" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -1601,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -1612,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1620,23 +1581,23 @@
       <c r="E22" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>85</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1644,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -1652,7 +1613,7 @@
       <c r="E23" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="5" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1662,13 +1623,13 @@
         <v>90</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1676,7 +1637,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1687,20 +1648,20 @@
       <c r="F24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>94</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1708,7 +1669,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -1722,17 +1683,17 @@
       <c r="G25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>98</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1740,31 +1701,31 @@
         <v>8</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1772,31 +1733,31 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="H27" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="I27" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1804,124 +1765,28 @@
         <v>8</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="H28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="I28" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
